--- a/src/test/resources/Files/FormTestData.xlsx
+++ b/src/test/resources/Files/FormTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28308"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sourav.panda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sourav.panda\OneDrive - QAPITOL QA\Desktop\DemoQA_New\DemoQA_APP_Automation\src\test\resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,28 +62,28 @@
     <t>Panda</t>
   </si>
   <si>
-    <t>qwer@gmail.com</t>
+    <t>sourav@gmail.com</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t> NA</t>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>//src//test//resources//Files//png-transparent-software-testing.png</t>
   </si>
   <si>
     <t>QWERTY</t>
   </si>
   <si>
-    <t>Odisha</t>
-  </si>
-  <si>
-    <t>Dharmagarh</t>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>Delhi</t>
   </si>
 </sst>
 </file>
@@ -429,15 +429,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="D1">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.42578" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28516" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28516" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="7.425781" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
